--- a/OnBoard/output/trust/catch/Catch_Trust_73.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_73.xlsx
@@ -2376,7 +2376,7 @@
         <v>0.031</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I49">
         <v>8.033249999999999</v>
@@ -2458,7 +2458,7 @@
         <v>0.005</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I51">
         <v>8.033249999999999</v>
@@ -2499,7 +2499,7 @@
         <v>0.05</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I52">
         <v>8.033249999999999</v>
@@ -2540,7 +2540,7 @@
         <v>0.035</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I53">
         <v>8.033249999999999</v>
@@ -2950,7 +2950,7 @@
         <v>1.62</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I63">
         <v>8.033249999999999</v>
@@ -2991,7 +2991,7 @@
         <v>0.396</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I64">
         <v>8.033249999999999</v>
